--- a/data/trans_bre/IP2002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-11,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-29,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>150,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>66,78%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,73</t>
+          <t>-4,05; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 2,73</t>
+          <t>-6,4; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,31</t>
+          <t>1,0; 7,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,05</t>
+          <t>-0,85; 6,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 42,96</t>
+          <t>-54,25; 94,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,18; 32,43</t>
+          <t>-59,7; 28,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 57,65</t>
+          <t>16,91; 506,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 81,72</t>
+          <t>-20,51; 267,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>150,14%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>11,52%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,26</t>
+          <t>-4,68; 4,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,51</t>
+          <t>-6,11; 2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,24</t>
+          <t>-4,16; 4,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,59</t>
+          <t>-2,59; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 94,96</t>
+          <t>-28,69; 42,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 28,7</t>
+          <t>-45,18; 32,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 506,48</t>
+          <t>-34,77; 57,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 267,85</t>
+          <t>-34,78; 81,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,45</t>
+          <t>-7,65; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>-40,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>150,14%</t>
+          <t>179,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>-7,99%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,26</t>
+          <t>-1,84; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,51</t>
+          <t>-4,77; 1,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,24</t>
+          <t>-0,29; 3,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,59</t>
+          <t>-3,87; 2,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 94,96</t>
+          <t>-80,47; 243,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 28,7</t>
+          <t>-77,08; 62,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 506,48</t>
+          <t>-50,59; 1688,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 267,85</t>
+          <t>-68,79; 146,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-17,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-20,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>92,24%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,73</t>
+          <t>-9,11; 3,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 2,73</t>
+          <t>-8,6; 2,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,31</t>
+          <t>-1,26; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,05</t>
+          <t>0,19; 9,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 42,96</t>
+          <t>-52,42; 29,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,18; 32,43</t>
+          <t>-58,29; 42,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 57,65</t>
+          <t>-18,48; 166,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 81,72</t>
+          <t>-3,12; 315,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>7,37%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,17</t>
+          <t>-4,21; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,86</t>
+          <t>-6,5; 4,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,61</t>
+          <t>-6,21; 5,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,25</t>
+          <t>-3,65; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 36,18</t>
+          <t>-29,48; 72,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 15,49</t>
+          <t>-47,13; 51,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 94,65</t>
+          <t>-46,78; 75,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 79,2</t>
+          <t>-47,1; 90,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-20,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 2,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 3,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 3,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-30,91; 32,58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-44,68; 11,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 89,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,09; 84,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP2002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,0</t>
+          <t>-7,61; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,49</t>
+          <t>-1,89; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,17</t>
+          <t>-4,69; 0,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,71</t>
+          <t>-0,29; 3,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 2,7</t>
+          <t>-3,84; 2,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,47; 243,47</t>
+          <t>-79,06; 244,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,08; 62,02</t>
+          <t>-76,88; 44,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,59; 1688,67</t>
+          <t>-55,32; 1119,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 146,97</t>
+          <t>-68,19; 157,11</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 3,42</t>
+          <t>-8,85; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 2,99</t>
+          <t>-7,79; 3,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,27</t>
+          <t>-1,68; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 9,67</t>
+          <t>-0,31; 8,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 29,14</t>
+          <t>-51,47; 42,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 42,88</t>
+          <t>-56,81; 45,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 166,74</t>
+          <t>-20,65; 160,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 315,78</t>
+          <t>-6,8; 296,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 6,89</t>
+          <t>-3,4; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,34</t>
+          <t>-6,11; 4,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 5,11</t>
+          <t>-6,16; 4,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,1</t>
+          <t>-3,21; 4,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 72,04</t>
+          <t>-24,65; 73,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 51,57</t>
+          <t>-44,43; 59,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 75,57</t>
+          <t>-46,82; 66,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,1; 90,69</t>
+          <t>-42,58; 99,5</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,03</t>
+          <t>-2,49; 2,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,61</t>
+          <t>-3,34; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,39</t>
+          <t>-0,61; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,37</t>
+          <t>-1,13; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 32,58</t>
+          <t>-29,08; 36,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 11,03</t>
+          <t>-42,89; 13,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 89,12</t>
+          <t>-10,26; 85,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 84,28</t>
+          <t>-17,69; 87,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2002-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2002-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 0,0</t>
+          <t>-6,84; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,99%</t>
+          <t>-11,67%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,71</t>
+          <t>-1,9; 1,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,89</t>
+          <t>-4,55; 1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,64</t>
+          <t>-0,34; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,82</t>
+          <t>-3,95; 2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,06; 244,39</t>
+          <t>-81,57; 371,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,88; 44,38</t>
+          <t>-76,83; 52,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 1119,18</t>
+          <t>-58,27; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 157,11</t>
+          <t>-73,26; 151,06</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>86,04%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 4,55</t>
+          <t>-9,57; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 3,42</t>
+          <t>-8,1; 3,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,8</t>
+          <t>-1,62; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 8,91</t>
+          <t>-0,5; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 42,21</t>
+          <t>-54,14; 30,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 45,15</t>
+          <t>-58,45; 40,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 160,58</t>
+          <t>-15,91; 164,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 296,25</t>
+          <t>-14,29; 274,3</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,9</t>
+          <t>-3,83; 7,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,76</t>
+          <t>-6,43; 4,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,71</t>
+          <t>-5,97; 3,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,05</t>
+          <t>-4,14; 4,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 73,45</t>
+          <t>-26,14; 73,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,43; 59,47</t>
+          <t>-46,17; 55,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 66,91</t>
+          <t>-45,22; 53,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 99,5</t>
+          <t>-49,57; 88,42</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>17,97%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,1</t>
+          <t>-2,56; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,84</t>
+          <t>-3,73; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,32</t>
+          <t>-0,67; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,22</t>
+          <t>-1,59; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 36,08</t>
+          <t>-30,84; 36,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 13,78</t>
+          <t>-45,24; 15,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 85,68</t>
+          <t>-12,57; 94,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 87,66</t>
+          <t>-25,29; 71,79</t>
         </is>
       </c>
     </row>
